--- a/prototype/csv_filter/outputdata.xlsx
+++ b/prototype/csv_filter/outputdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>dc</t>
   </si>
@@ -24,16 +24,13 @@
     <t>Name</t>
   </si>
   <si>
-    <t>label</t>
+    <t>無</t>
   </si>
   <si>
     <t>有</t>
   </si>
   <si>
     <t>production</t>
-  </si>
-  <si>
-    <t>無</t>
   </si>
   <si>
     <t>other</t>
@@ -440,7 +437,7 @@
       </c>
       <c r="B3" s="1" t="s"/>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -455,10 +452,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -473,10 +470,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
